--- a/DataStructure_Algorithm QA.xlsx
+++ b/DataStructure_Algorithm QA.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="311">
   <si>
     <t>Add two numbers represented as linked lists</t>
   </si>
@@ -19748,9 +19748,6 @@
 </t>
   </si>
   <si>
-    <t>Find last index of an element in a sorted array with duplicates</t>
-  </si>
-  <si>
     <t>Input:
     array = {0, 1, 2, 2, 4, 5, 5, 5, 8};
     num = 5;
@@ -19790,12 +19787,6 @@
 Output: 9
 Input : 2 3 4 3 1 4 5 1 4 2 5
 Output: 4</t>
-  </si>
-  <si>
-    <t>Find the number which occurs odd number of times (not even # of times positive numbers ) given array</t>
-  </si>
-  <si>
-    <t>Find the missing number in the duplicate array</t>
   </si>
   <si>
     <t>1. Initialize result = 0.
@@ -19833,9 +19824,6 @@
   return i &lt;= j &amp;&amp; i &lt;= k ? i : (j &lt;= i &amp;&amp; j &lt;= k ? j : k); }</t>
   </si>
   <si>
-    <t>Find maximum element from each sub-array of size 'k'</t>
-  </si>
-  <si>
     <t>If you are given an integer array and an integer 'k' as input, write a program to print elements with maximum values from each possible sub-array (of given input array) of size 'k'. 
 Input :  {9,6,11,8,10,5,14,13,93,14} , k = 4
 output:  11,11,11,14,14,93,93. 
@@ -19857,6 +19845,93 @@
              list.add(i);
          }
          System.out.println(array[list.getFirst()]); }</t>
+  </si>
+  <si>
+    <t>Longest Subset With Consecutive Numbers</t>
+  </si>
+  <si>
+    <t>Given a set of numbers, find the longest subset of consecutive numbers.
+Example:
+Input:
+1 3 8 14 4 10 2 11
+Output:
+1 2 3 4</t>
+  </si>
+  <si>
+    <t>Missing number in the duplicate array</t>
+  </si>
+  <si>
+    <t>Maximum element from each sub-array of size 'k'</t>
+  </si>
+  <si>
+    <t>Occurs odd number of times (not even # of times positive numbers ) given array</t>
+  </si>
+  <si>
+    <t>Last index of an element in a sorted array with duplicates</t>
+  </si>
+  <si>
+    <t>Distance between two given keys</t>
+  </si>
+  <si>
+    <t>Minimum difference between any two elements in an array of integer</t>
+  </si>
+  <si>
+    <t>Minimum number of Coins</t>
+  </si>
+  <si>
+    <t>Nearest greater elements on its right for each index.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak Element
+Example: 2433342 peak is 3
+</t>
+  </si>
+  <si>
+    <t>Gold Mine Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a gold mine of n*m dimensions. Each field in this mine contains an integer which is the amount of gold in tons. 
+Initially the miner is in first column but can be at any row i. He can move only (right , right up , right down ) that is from a given cell, the miner can move to the cell diagonally up towards the right or right or diagonally down towards the right. Find out maximum amount of gold he can collect.
+Input : int[][] mine = { { 1, 3, 1, 5 }, 
+                                 { 2, 2, 4, 1 }, 
+                                 { 5, 0, 2, 3 },
+                                 { 0, 6, 1, 2 } };
+</t>
+  </si>
+  <si>
+    <t>Initial instinct to use Graph BFS; But its very SIMPLY doable by MEMOIZATION similar to find MAX SQUARE given array. 
+Fyr: Max Square determination was O(n) iteration, each one cell holds previous results, so we can choose max or min values out of it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int getMaxGold() {
+....
+        for (int col = colLength - 1; col &gt;= 0; col--) {
+            for (int row = 0; row &lt; rowLength; row++) {
+                // Gold collected on going to the cell on the right (-&gt;)
+                int right = col == colLength - 1 ? 0
+                        : goldMineTable[row][col + 1];
+                // Gold collected on going to the cell to right up (/) i.e. diagonally up
+                int rightUp = (row == 0 || col == colLength - 1 ? 0
+                        : goldMineTable[row - 1][col + 1]);
+                // Gold collected on going to the cell to right down (\) i.e. diagonally down
+                int rightDown = (row == rowLength - 1 || col == colLength - 1 ? 0
+                        : goldMineTable[row + 1][col + 1]);
+                // Max gold collected from taking either of the above 3 paths
+                goldMineTable[row][col] = goldMine[row][col]
+                        + Math.max(rightUp, Math.max(right, rightDown));
+            }
+        }
+        int max = 0;
+        // The max amount of gold collected will be the max value in first column of all rows
+        for (int i = 0; i &lt; rowLength; i++) {
+            max = max &lt; goldMineTable[i][0] ? goldMineTable[i][0] : max;
+        }
+        return max;
+    }</t>
+  </si>
+  <si>
+    <t>Given an array of integers, find the longest increasing subsequence. 
+Example: X = {3,1,5,2,6,4,9} LIS(X) = {1,2,4,9}</t>
   </si>
 </sst>
 </file>
@@ -23512,10 +23587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F42"/>
+  <dimension ref="B2:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D39" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -23613,7 +23688,7 @@
         <v>70</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>116</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="112.5" x14ac:dyDescent="0.25">
@@ -23621,7 +23696,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>75</v>
+        <v>302</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>234</v>
@@ -23632,7 +23707,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>235</v>
@@ -23643,7 +23718,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>71</v>
+        <v>304</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>237</v>
@@ -23654,7 +23729,7 @@
         <v>70</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>305</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>57</v>
@@ -23720,12 +23795,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>82</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
@@ -23758,7 +23842,7 @@
         <v>231</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="63" x14ac:dyDescent="0.25">
@@ -23931,16 +24015,16 @@
         <v>70</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="E39" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="F39" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="90" x14ac:dyDescent="0.25">
@@ -23948,13 +24032,13 @@
         <v>70</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="90" x14ac:dyDescent="0.25">
@@ -23962,24 +24046,46 @@
         <v>70</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>298</v>
+    </row>
+    <row r="44" spans="2:6" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/DataStructure_Algorithm QA.xlsx
+++ b/DataStructure_Algorithm QA.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="313">
   <si>
     <t>Add two numbers represented as linked lists</t>
   </si>
@@ -19932,6 +19932,19 @@
   <si>
     <t>Given an array of integers, find the longest increasing subsequence. 
 Example: X = {3,1,5,2,6,4,9} LIS(X) = {1,2,4,9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given two integer arrays where second array is duplicate of first array with just 1 element missing. Find the element.
+Input:
+Array1 - 9 7 8 5 4 6 2 3 1
+Array2 - 2 4 3 9 1 8 5 6
+Output: 7
+</t>
+  </si>
+  <si>
+    <t>O ( n )
+#1 : sum all arr1; total subtract arr2
+#2 : Iterate max arr2 and XOR with arr2</t>
   </si>
 </sst>
 </file>
@@ -23587,10 +23600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F44"/>
+  <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -24086,6 +24099,14 @@
       </c>
       <c r="F44" s="11" t="s">
         <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="D45" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/DataStructure_Algorithm QA.xlsx
+++ b/DataStructure_Algorithm QA.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="4" r:id="rId1"/>
     <sheet name="Array" sheetId="5" r:id="rId2"/>
-    <sheet name="LinkedList" sheetId="6" r:id="rId3"/>
-    <sheet name="Tree" sheetId="7" r:id="rId4"/>
-    <sheet name="Graph" sheetId="8" r:id="rId5"/>
-    <sheet name="Dynamic" sheetId="9" r:id="rId6"/>
-    <sheet name="BitManup" sheetId="10" r:id="rId7"/>
-    <sheet name="Alg" sheetId="2" r:id="rId8"/>
+    <sheet name="Forum" sheetId="11" r:id="rId3"/>
+    <sheet name="LinkedList" sheetId="6" r:id="rId4"/>
+    <sheet name="Tree" sheetId="7" r:id="rId5"/>
+    <sheet name="Graph" sheetId="8" r:id="rId6"/>
+    <sheet name="Dynamic" sheetId="9" r:id="rId7"/>
+    <sheet name="BitManup" sheetId="10" r:id="rId8"/>
+    <sheet name="Alg" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INDEX!$A$2:$D$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="327">
   <si>
     <t>Add two numbers represented as linked lists</t>
   </si>
@@ -19946,12 +19947,216 @@
 #1 : sum all arr1; total subtract arr2
 #2 : Iterate max arr2 and XOR with arr2</t>
   </si>
+  <si>
+    <t>Why smart and brilliant people fail in Google Interview?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Interview is to check problem solving skill on never seen problems before
+-- expectation is testing a trained brain which is capable of solve any probs;
+-- </t>
+  </si>
+  <si>
+    <t>Problem Solving Skills to be developed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Structured Approach 
+-- Tradeoff between choices
+-- Get more than one solution
+-- </t>
+  </si>
+  <si>
+    <t>Problem Solving - Structured Approach</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Clarify Question (Requirement Gathering) By </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repeat the question our own words</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Assumption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clarify and confirm
+-- Come up with various </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>examples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and ans
+-- Tradeoff </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solutions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Design)
+-- Clean </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cases
+-- Improve bottle neck</t>
+    </r>
+  </si>
+  <si>
+    <t>What people say?</t>
+  </si>
+  <si>
+    <t>-- Be Clear; what are materials and how are things going to be handled on the way
+-- Pratice deciplined manner; 
+-- Keep Practising until through
+-- Determination - No second thought; Just decided up to it;
+-- Dedication - dedicate sufficient time and sacrifies
+-- Decipline - Never miss schedule; Fulfill per plan for weeks or months</t>
+  </si>
+  <si>
+    <t>thinking how many days, hours will take me to go through all materials and practise more probs; 
+I see people spent few weeks of dedicated study and get through… 
+I started CCI and other questions try myself and gone to see answers.. On the way basic DS.. did it nearly 4-8months. then came back to question to solve myself but ended up struggles; What is my situation now...</t>
+  </si>
+  <si>
+    <t>Subconsious mind is miraculously powerful; my subconsious feelings are
+-- LOT TO DO… SEEMS IT will TAKE ANOTHER FEW MONTHS…
+-- I AM NOT MAKING GOOD PROGRESS
+-- I AM NOT SURE, I GONNA MAKE IT
+-- ITS VERY HARD;
+-- I AM LOT BE HIND</t>
+  </si>
+  <si>
+    <t>How shall I make it?</t>
+  </si>
+  <si>
+    <t>Study Tips:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- short time FOCUS study
+-- explain what just read end of small session
+-- short BREAK;
+-- think and WALK 
+-- DIFFUSE Thinking
+-- power nap
+-- Keep relax; Happy mood
+</t>
+  </si>
+  <si>
+    <t>-- Affirmative self talk (Law of attraction)
+-- Transmute to positive subconsious fealings
+-- Keep Questioning on subject; instead of confusions and negative feels
+-- Follow study tips
+-- ORGANIZED activities; PLAN ahead;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20270,6 +20475,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -20297,7 +20510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -20400,6 +20613,9 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -23602,8 +23818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -24121,878 +24337,81 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J65"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="67" style="9" customWidth="1"/>
-    <col min="5" max="5" width="67" style="7" customWidth="1"/>
-    <col min="6" max="6" width="91.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" style="11" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="11"/>
-    <col min="10" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="35.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="123.75" x14ac:dyDescent="0.2">
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.25">
-      <c r="C18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="121.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="162" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="81" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="C32" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" s="27" customFormat="1" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="24"/>
-    </row>
-    <row r="46" spans="2:10" s="27" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="24"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="24"/>
-    </row>
-    <row r="47" spans="2:10" s="27" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="24"/>
-    </row>
-    <row r="48" spans="2:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23"/>
-      <c r="C48" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="24"/>
-    </row>
-    <row r="49" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="23"/>
-      <c r="C49" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="24"/>
-    </row>
-    <row r="50" spans="1:10" s="27" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="G50" s="24"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="24"/>
-    </row>
-    <row r="51" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="24"/>
-    </row>
-    <row r="52" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G52" s="24"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="24"/>
-    </row>
-    <row r="53" spans="1:10" s="24" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-    </row>
-    <row r="54" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="C54" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="148.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>187</v>
+    <row r="2" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -26752,6 +26171,883 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="67" style="9" customWidth="1"/>
+    <col min="5" max="5" width="67" style="7" customWidth="1"/>
+    <col min="6" max="6" width="91.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="45.85546875" style="11" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="11"/>
+    <col min="10" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="72" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="123.75" x14ac:dyDescent="0.2">
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="121.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="162" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="81" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" s="27" customFormat="1" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" spans="2:10" s="27" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="24"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="24"/>
+    </row>
+    <row r="47" spans="2:10" s="27" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="24"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" spans="2:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="23"/>
+      <c r="C48" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" spans="1:10" s="27" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="24"/>
+      <c r="F50" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="24"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="24"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" s="24"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="1:10" s="24" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+    </row>
+    <row r="54" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="C54" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="148.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26826,7 +27122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -26840,7 +27136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B9"/>
   <sheetViews>

--- a/DataStructure_Algorithm QA.xlsx
+++ b/DataStructure_Algorithm QA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEF5DB1-8763-524B-91EF-9F8F90E3B441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8220" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="4" r:id="rId1"/>
@@ -16,11 +17,13 @@
     <sheet name="Dynamic" sheetId="9" r:id="rId7"/>
     <sheet name="BitManup" sheetId="10" r:id="rId8"/>
     <sheet name="Alg" sheetId="2" r:id="rId9"/>
+    <sheet name="ANALOGY" sheetId="12" r:id="rId10"/>
+    <sheet name="ANALOGY CODE" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INDEX!$A$2:$D$35</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="397">
   <si>
     <t>Add two numbers represented as linked lists</t>
   </si>
@@ -20151,12 +20154,285 @@
 -- Follow study tips
 -- ORGANIZED activities; PLAN ahead;</t>
   </si>
+  <si>
+    <t>duplicated</t>
+  </si>
+  <si>
+    <t>number-any</t>
+  </si>
+  <si>
+    <t>sorted</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>OPERATION</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>HIGH LEVEL APPROACH</t>
+  </si>
+  <si>
+    <t>SPECIAL CASE</t>
+  </si>
+  <si>
+    <t>SHORT Q</t>
+  </si>
+  <si>
+    <t>DETAILS Q</t>
+  </si>
+  <si>
+    <t>Magic Index</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>BACK</t>
+  </si>
+  <si>
+    <t>ANALOGY CODE_</t>
+  </si>
+  <si>
+    <t>BINARY SEARCH</t>
+  </si>
+  <si>
+    <t>Magic Index: A magic index in an array A[ 1.•.n-1] is defined to be an index such that A[ i] =  i.
+Given a sorted array of distinct integers, write a method to find a magic index, if one exists, in array A.
+FOLLOW UP
+What if the values are not distinct?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When we see that A[mid] &lt; mid, we cannot conclude which side the magic index is on. It could be on the right side, as before. Or, it could be on the left side (as it, in fact, is).
+The general pattern is that we compare midIndex and midValue for equality first. Then, if they are not equal, we recursively search the left and right sides as follows:
+• Left side: search indices start through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Math. min(midlndex - 1, midValue)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Right side: search indices</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Math. max(midlndex + 1, midValue)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> through e nd.</t>
+    </r>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>NO SPECIAL</t>
+  </si>
+  <si>
+    <t>Magic Index: A magic index in an array A[ 1.•.n-1] is defined to be an index such that A[ i] =  i.
+Given a sorted array of distinct integers, write a method to find a magic index, if one exists, in array A.</t>
+  </si>
+  <si>
+    <t>DS special</t>
+  </si>
+  <si>
+    <t>roated</t>
+  </si>
+  <si>
+    <t>find index</t>
+  </si>
+  <si>
+    <t>find index of a element in given array</t>
+  </si>
+  <si>
+    <t>AR-SRT-UNI-2</t>
+  </si>
+  <si>
+    <t>AR-SRT-UNI-1</t>
+  </si>
+  <si>
+    <t>AR-SRT-DUP-1</t>
+  </si>
+  <si>
+    <t>index = val</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>N-th elem</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
+  </si>
+  <si>
+    <t>RECURSIVE</t>
+  </si>
+  <si>
+    <t>2 STEP PROCESS
+'-- Have to find roated point
+-- searching element could be find in 
+---------- right side if array N val is less than searching one
+---------- otherwise left side search</t>
+  </si>
+  <si>
+    <t>SECOND LEVEL</t>
+  </si>
+  <si>
+    <t>1, 1, 2, 3, 5, 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> f ( n ) = f ( n - 1) + f ( n - 2)</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Staircase</t>
+  </si>
+  <si>
+    <t>Memoization</t>
+  </si>
+  <si>
+    <t>count (f ( n ) ) = count( f ( n -1)) + count ( f ( n - 2)) + count ( f ( n - 3))</t>
+  </si>
+  <si>
+    <t>N th element depends on previous steps</t>
+  </si>
+  <si>
+    <t>Total count depends on previous counts</t>
+  </si>
+  <si>
+    <t>AR-SEQ-2</t>
+  </si>
+  <si>
+    <t>AR-SEQ-1</t>
+  </si>
+  <si>
+    <t>Hop 1 or  2 or 3 to reach N steps</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>This prop seems permutation / combination prob but easily solvable by fibonacci way</t>
+  </si>
+  <si>
+    <t>All Possible</t>
+  </si>
+  <si>
+    <t>8 Queen</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Print all possible way to keep 8 queens in 8x8 chess board</t>
+  </si>
+  <si>
+    <t>O ( N pow 4 )</t>
+  </si>
+  <si>
+    <t>un-sort</t>
+  </si>
+  <si>
+    <t>m,n is unsorted</t>
+  </si>
+  <si>
+    <t>m, n indices</t>
+  </si>
+  <si>
+    <t>sub sort</t>
+  </si>
+  <si>
+    <t>Sliding window</t>
+  </si>
+  <si>
+    <t>ITERATE</t>
+  </si>
+  <si>
+    <t>-- Left Longest Increasing seq; 
+-- Right Longest decreasing seq;
+-- Sort Mid
+-- compare Mid.left and Left.right until Mid.left &gt;= Left.right ie M
+-- compare Mid.right and Right.left until Mid.right &lt;= Right.left ie N
+-- return M, N</t>
+  </si>
+  <si>
+    <t>Mix of -Ve and +Ve</t>
+  </si>
+  <si>
+    <t>Calc Mx Sum</t>
+  </si>
+  <si>
+    <t>Contin Seq Large Sum</t>
+  </si>
+  <si>
+    <t>You are given an array of integers (both positive and negative). Find the contiguous sequence with the largest sum. Return the sum.</t>
+  </si>
+  <si>
+    <t>lnput: 2, -8, 3, -2, 4, -10 
+Output: 5  {3, -2, 4})</t>
+  </si>
+  <si>
+    <t>-- if all numbers are negative find Max -Ve linear
+-- if sum &lt; 0 then sum = 0;
+-- find Max sequentially</t>
+  </si>
+  <si>
+    <t>Pattern Match</t>
+  </si>
+  <si>
+    <t>Two String involves</t>
+  </si>
+  <si>
+    <t>Possible O ( N pow 2 )</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="51" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20483,8 +20759,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20494,6 +20786,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20507,10 +20805,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -20617,8 +20916,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -20651,7 +20964,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -20691,7 +21010,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20729,7 +21054,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20767,7 +21098,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20805,7 +21142,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20843,7 +21186,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20881,7 +21230,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20919,7 +21274,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20957,7 +21318,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20995,7 +21362,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21045,7 +21418,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21088,7 +21467,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51"/>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -21128,7 +21513,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 52"/>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21166,7 +21557,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 54"/>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21204,7 +21601,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 56"/>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21242,7 +21645,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57"/>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21280,7 +21689,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 58"/>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21318,7 +21733,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61"/>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21361,7 +21782,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -21401,7 +21828,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21439,7 +21872,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21477,7 +21916,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21515,7 +21960,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21553,7 +22004,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21591,7 +22048,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21629,7 +22092,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21667,7 +22136,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21705,7 +22180,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21755,7 +22236,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21798,7 +22285,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -21838,7 +22331,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21876,7 +22375,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21914,7 +22419,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21952,7 +22463,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -21990,7 +22507,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22028,7 +22551,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22066,7 +22595,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22104,7 +22639,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22142,7 +22683,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22192,7 +22739,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22235,7 +22788,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -22275,7 +22834,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22313,7 +22878,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22351,7 +22922,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22389,7 +22966,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22427,7 +23010,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22465,7 +23054,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22503,7 +23098,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22541,7 +23142,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22579,7 +23186,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22629,7 +23242,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -22644,6 +23263,182 @@
         <a:xfrm>
           <a:off x="2682240" y="74058780"/>
           <a:ext cx="2690093" cy="1348857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3302000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>540709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="page358image1731712">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEA52C2-F0A4-A246-B1D0-B87F5C40D11A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7937500" y="533400"/>
+          <a:ext cx="3175000" cy="388309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3556000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>573077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="page357image1756800">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EF1980-9B00-FF44-AA4F-5A3C7CD5C89D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7835900" y="2374900"/>
+          <a:ext cx="3479800" cy="407977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5791200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4279900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2BC168-204D-C34A-A508-EB99BED33459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5854700" y="228600"/>
+          <a:ext cx="5651500" cy="4241800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22917,24 +23712,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="67" style="9" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="11"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="5" max="6" width="9.1640625" style="11"/>
+    <col min="7" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="13">
       <c r="A2" s="3" t="s">
         <v>229</v>
       </c>
@@ -22950,7 +23743,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="52">
       <c r="A3" s="7" t="s">
         <v>195</v>
       </c>
@@ -22964,7 +23757,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="26">
       <c r="A4" s="7" t="s">
         <v>196</v>
       </c>
@@ -22978,7 +23771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="169">
       <c r="A5" s="7" t="s">
         <v>197</v>
       </c>
@@ -22992,7 +23785,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="78">
       <c r="A6" s="7" t="s">
         <v>198</v>
       </c>
@@ -23006,7 +23799,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="104">
       <c r="A7" s="7" t="s">
         <v>199</v>
       </c>
@@ -23020,7 +23813,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="65">
       <c r="A8" s="7" t="s">
         <v>200</v>
       </c>
@@ -23034,7 +23827,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>201</v>
       </c>
@@ -23045,7 +23838,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="130">
       <c r="A10" s="7" t="s">
         <v>202</v>
       </c>
@@ -23059,7 +23852,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="104">
       <c r="A11" s="7" t="s">
         <v>203</v>
       </c>
@@ -23073,7 +23866,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="91">
       <c r="A12" s="7" t="s">
         <v>204</v>
       </c>
@@ -23087,7 +23880,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="39">
       <c r="A13" s="7" t="s">
         <v>205</v>
       </c>
@@ -23101,7 +23894,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="39">
       <c r="A14" s="7" t="s">
         <v>206</v>
       </c>
@@ -23115,7 +23908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
         <v>207</v>
       </c>
@@ -23126,7 +23919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="52">
       <c r="A16" s="7" t="s">
         <v>208</v>
       </c>
@@ -23140,7 +23933,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="39">
       <c r="A17" s="7" t="s">
         <v>209</v>
       </c>
@@ -23154,7 +23947,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="24">
       <c r="A18" s="7" t="s">
         <v>210</v>
       </c>
@@ -23165,7 +23958,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="52">
       <c r="A19" s="7" t="s">
         <v>211</v>
       </c>
@@ -23179,7 +23972,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="7" t="s">
         <v>212</v>
       </c>
@@ -23190,7 +23983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="78">
       <c r="A21" s="7" t="s">
         <v>213</v>
       </c>
@@ -23204,7 +23997,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
         <v>214</v>
       </c>
@@ -23215,7 +24008,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="143">
       <c r="A23" s="7" t="s">
         <v>215</v>
       </c>
@@ -23229,7 +24022,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="60">
       <c r="A24" s="7" t="s">
         <v>216</v>
       </c>
@@ -23243,7 +24036,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="104">
       <c r="A25" s="7" t="s">
         <v>217</v>
       </c>
@@ -23257,7 +24050,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="39">
       <c r="A26" s="7" t="s">
         <v>218</v>
       </c>
@@ -23271,7 +24064,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="78">
       <c r="A27" s="7" t="s">
         <v>219</v>
       </c>
@@ -23285,7 +24078,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="52">
       <c r="A28" s="7" t="s">
         <v>220</v>
       </c>
@@ -23299,7 +24092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="13">
       <c r="A29" s="7" t="s">
         <v>221</v>
       </c>
@@ -23313,7 +24106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="117">
       <c r="A30" s="7" t="s">
         <v>222</v>
       </c>
@@ -23327,7 +24120,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="91">
       <c r="A31" s="7" t="s">
         <v>223</v>
       </c>
@@ -23341,7 +24134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="39">
       <c r="A32" s="7" t="s">
         <v>240</v>
       </c>
@@ -23355,7 +24148,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="65">
       <c r="A33" s="7" t="s">
         <v>241</v>
       </c>
@@ -23369,7 +24162,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="52">
       <c r="A34" s="7" t="s">
         <v>242</v>
       </c>
@@ -23383,7 +24176,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="39">
       <c r="A35" s="7" t="s">
         <v>243</v>
       </c>
@@ -23397,7 +24190,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="156">
       <c r="A36" s="7" t="s">
         <v>244</v>
       </c>
@@ -23411,7 +24204,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="65">
       <c r="A37" s="7" t="s">
         <v>265</v>
       </c>
@@ -23425,7 +24218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="130">
       <c r="A38" s="7" t="s">
         <v>266</v>
       </c>
@@ -23439,7 +24232,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="65">
       <c r="A39" s="34" t="s">
         <v>245</v>
       </c>
@@ -23453,7 +24246,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="39">
       <c r="A40" s="34" t="s">
         <v>246</v>
       </c>
@@ -23467,7 +24260,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="39">
       <c r="A41" s="34" t="s">
         <v>247</v>
       </c>
@@ -23481,7 +24274,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="91">
       <c r="A42" s="34" t="s">
         <v>248</v>
       </c>
@@ -23495,7 +24288,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="27" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="27" customFormat="1" ht="65">
       <c r="A43" s="7" t="s">
         <v>249</v>
       </c>
@@ -23512,7 +24305,7 @@
       <c r="F43" s="26"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" s="27" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="27" customFormat="1" ht="104">
       <c r="A44" s="7" t="s">
         <v>250</v>
       </c>
@@ -23529,7 +24322,7 @@
       <c r="F44" s="28"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" s="27" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="27" customFormat="1" ht="117">
       <c r="A45" s="7" t="s">
         <v>251</v>
       </c>
@@ -23546,7 +24339,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" s="27" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="27" customFormat="1" ht="130">
       <c r="A46" s="7" t="s">
         <v>252</v>
       </c>
@@ -23563,7 +24356,7 @@
       <c r="F46" s="26"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="27" customFormat="1" ht="13">
       <c r="A47" s="7" t="s">
         <v>224</v>
       </c>
@@ -23580,7 +24373,7 @@
       <c r="F47" s="26"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="27" customFormat="1" ht="24">
       <c r="A48" s="7" t="s">
         <v>225</v>
       </c>
@@ -23595,7 +24388,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" s="27" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="27" customFormat="1" ht="36">
       <c r="A49" s="7" t="s">
         <v>226</v>
       </c>
@@ -23610,7 +24403,7 @@
       <c r="F49" s="30"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" s="27" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="27" customFormat="1" ht="36">
       <c r="A50" s="7" t="s">
         <v>227</v>
       </c>
@@ -23625,7 +24418,7 @@
       <c r="F50" s="31"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" s="24" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="24" customFormat="1" ht="26">
       <c r="A51" s="7" t="s">
         <v>253</v>
       </c>
@@ -23641,7 +24434,7 @@
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
     </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="52">
       <c r="A52" s="7" t="s">
         <v>254</v>
       </c>
@@ -23652,7 +24445,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="26">
       <c r="A53" s="7" t="s">
         <v>264</v>
       </c>
@@ -23666,7 +24459,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="39">
       <c r="A54" s="27" t="s">
         <v>255</v>
       </c>
@@ -23680,7 +24473,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="13">
       <c r="A55" s="27" t="s">
         <v>256</v>
       </c>
@@ -23692,7 +24485,7 @@
       </c>
       <c r="D55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="13">
       <c r="A56" s="27" t="s">
         <v>257</v>
       </c>
@@ -23706,7 +24499,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="13">
       <c r="A57" s="27" t="s">
         <v>258</v>
       </c>
@@ -23720,7 +24513,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="39">
       <c r="A58" s="27" t="s">
         <v>259</v>
       </c>
@@ -23734,7 +24527,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="130">
       <c r="A59" s="27" t="s">
         <v>260</v>
       </c>
@@ -23748,7 +24541,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="26">
       <c r="A60" s="27" t="s">
         <v>261</v>
       </c>
@@ -23762,7 +24555,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="156">
       <c r="A61" s="27" t="s">
         <v>262</v>
       </c>
@@ -23776,7 +24569,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="169">
       <c r="A62" s="27" t="s">
         <v>263</v>
       </c>
@@ -23790,7 +24583,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="52">
       <c r="A63" s="7" t="s">
         <v>193</v>
       </c>
@@ -23814,26 +24607,547 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BED0ED-9721-9649-980F-6D55E1787288}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:P25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="47.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="60.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="55.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="29.83203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="16">
+      <c r="B2" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="144">
+      <c r="B3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K3" s="39"/>
+      <c r="L3" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="79" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="80">
+      <c r="B5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="96">
+      <c r="B6" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="48">
+      <c r="B7" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="32">
+      <c r="B8" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="N8" s="35"/>
+      <c r="O8" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="16">
+      <c r="B9" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="48">
+      <c r="B10" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="2:16" ht="32">
+      <c r="C12" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O3" location="'ANALOGY CODE'!E2" display="ANALOGY CODE_" xr:uid="{71F8E8EC-5072-0E4F-990E-0A34D7E3AD3A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CF2DEC-99CE-334A-876C-DB6C3DEFC632}">
+  <dimension ref="D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="5" max="5" width="88.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:4" ht="341" customHeight="1">
+      <c r="D2" s="36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" location="ANALOGY!B3" display="BACK" xr:uid="{3C6CB0BE-4E8A-9A4B-A877-B621724D91DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="67" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="82.42578125" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="5" max="5" width="37.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="82.5" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" s="2" customFormat="1" ht="13">
       <c r="B2" s="3" t="s">
         <v>230</v>
       </c>
@@ -23846,7 +25160,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="52">
       <c r="B3" s="7" t="s">
         <v>37</v>
       </c>
@@ -23857,7 +25171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="26">
       <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
@@ -23868,7 +25182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="169">
       <c r="B5" s="7" t="s">
         <v>70</v>
       </c>
@@ -23879,7 +25193,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="78">
       <c r="B6" s="7" t="s">
         <v>228</v>
       </c>
@@ -23890,7 +25204,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="104">
       <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
@@ -23901,7 +25215,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="65">
       <c r="B8" s="7" t="s">
         <v>70</v>
       </c>
@@ -23912,7 +25226,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="B9" s="7" t="s">
         <v>70</v>
       </c>
@@ -23920,7 +25234,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="130">
       <c r="B10" s="7" t="s">
         <v>70</v>
       </c>
@@ -23931,7 +25245,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="104">
       <c r="B11" s="7" t="s">
         <v>70</v>
       </c>
@@ -23942,7 +25256,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="91">
       <c r="B12" s="7" t="s">
         <v>70</v>
       </c>
@@ -23953,7 +25267,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="39">
       <c r="B13" s="7" t="s">
         <v>70</v>
       </c>
@@ -23964,7 +25278,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="39">
       <c r="B14" s="7" t="s">
         <v>70</v>
       </c>
@@ -23975,7 +25289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6">
       <c r="B15" s="7" t="s">
         <v>70</v>
       </c>
@@ -23983,7 +25297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="52">
       <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
@@ -23994,7 +25308,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="39">
       <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
@@ -24005,7 +25319,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="24">
       <c r="B18" s="7" t="s">
         <v>70</v>
       </c>
@@ -24013,7 +25327,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="52">
       <c r="B19" s="7" t="s">
         <v>37</v>
       </c>
@@ -24024,7 +25338,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="49.5" customHeight="1">
       <c r="B20" s="7" t="s">
         <v>70</v>
       </c>
@@ -24041,7 +25355,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="78">
       <c r="B21" s="7" t="s">
         <v>37</v>
       </c>
@@ -24052,7 +25366,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6">
       <c r="B22" s="7" t="s">
         <v>228</v>
       </c>
@@ -24060,7 +25374,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="127.5" customHeight="1">
       <c r="B23" s="7" t="s">
         <v>228</v>
       </c>
@@ -24074,7 +25388,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="60">
       <c r="B24" s="7" t="s">
         <v>70</v>
       </c>
@@ -24085,7 +25399,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="104">
       <c r="B25" s="7" t="s">
         <v>70</v>
       </c>
@@ -24096,7 +25410,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="39">
       <c r="B26" s="7" t="s">
         <v>70</v>
       </c>
@@ -24107,7 +25421,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="78">
       <c r="B27" s="7" t="s">
         <v>228</v>
       </c>
@@ -24118,7 +25432,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="52">
       <c r="B28" s="7" t="s">
         <v>37</v>
       </c>
@@ -24129,7 +25443,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="13">
       <c r="B29" s="7" t="s">
         <v>37</v>
       </c>
@@ -24140,7 +25454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="117">
       <c r="B30" s="7" t="s">
         <v>70</v>
       </c>
@@ -24151,7 +25465,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="91">
       <c r="B31" s="7" t="s">
         <v>70</v>
       </c>
@@ -24162,7 +25476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="39">
       <c r="B32" s="7" t="s">
         <v>70</v>
       </c>
@@ -24173,7 +25487,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="65">
       <c r="B33" s="7" t="s">
         <v>37</v>
       </c>
@@ -24184,7 +25498,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="52">
       <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
@@ -24195,7 +25509,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="39">
       <c r="B35" s="7" t="s">
         <v>33</v>
       </c>
@@ -24206,7 +25520,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="156">
       <c r="B36" s="7" t="s">
         <v>70</v>
       </c>
@@ -24217,7 +25531,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="65">
       <c r="B37" s="7" t="s">
         <v>70</v>
       </c>
@@ -24228,7 +25542,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="130">
       <c r="B38" s="7" t="s">
         <v>70</v>
       </c>
@@ -24239,7 +25553,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="66" customHeight="1">
       <c r="B39" s="7" t="s">
         <v>70</v>
       </c>
@@ -24256,7 +25570,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="104">
       <c r="B40" s="7" t="s">
         <v>70</v>
       </c>
@@ -24270,7 +25584,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="104">
       <c r="B41" s="7" t="s">
         <v>70</v>
       </c>
@@ -24284,7 +25598,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="93.75" customHeight="1">
       <c r="C42" s="8" t="s">
         <v>298</v>
       </c>
@@ -24295,7 +25609,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="91">
       <c r="C43" s="8" t="s">
         <v>295</v>
       </c>
@@ -24303,7 +25617,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="170.25" customHeight="1">
       <c r="C44" s="8" t="s">
         <v>306</v>
       </c>
@@ -24317,7 +25631,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="104">
       <c r="D45" s="9" t="s">
         <v>311</v>
       </c>
@@ -24336,24 +25650,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="35.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="35.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="49" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="42.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="48">
       <c r="B2" s="1" t="s">
         <v>313</v>
       </c>
@@ -24361,7 +25675,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="64">
       <c r="B3" s="1" t="s">
         <v>315</v>
       </c>
@@ -24369,7 +25683,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="112">
       <c r="B4" s="1" t="s">
         <v>317</v>
       </c>
@@ -24377,7 +25691,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="96">
       <c r="B5" s="1" t="s">
         <v>319</v>
       </c>
@@ -24385,7 +25699,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="112">
       <c r="C6" s="1" t="s">
         <v>321</v>
       </c>
@@ -24393,7 +25707,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="80">
       <c r="B7" s="1" t="s">
         <v>323</v>
       </c>
@@ -24401,7 +25715,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="128">
       <c r="B8" s="1" t="s">
         <v>324</v>
       </c>
@@ -24416,27 +25730,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="67" style="9" customWidth="1"/>
     <col min="5" max="5" width="67" style="7" customWidth="1"/>
-    <col min="6" max="6" width="91.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" style="11" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="11"/>
-    <col min="10" max="16384" width="9.140625" style="7"/>
+    <col min="6" max="6" width="91.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" style="11" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" style="11"/>
+    <col min="10" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" s="2" customFormat="1" ht="13">
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
@@ -24451,7 +25765,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="69.75" customHeight="1">
       <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
@@ -24459,7 +25773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="66">
       <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
@@ -24467,7 +25781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="72" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="88">
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
@@ -24478,7 +25792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="77">
       <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
@@ -24486,7 +25800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="132">
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
@@ -24500,7 +25814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="120.75" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -24514,7 +25828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="132" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
@@ -24528,7 +25842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="132" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
@@ -24540,7 +25854,7 @@
       </c>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="69.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
@@ -24554,7 +25868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="69.75" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
@@ -24568,7 +25882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="69.75" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
@@ -24585,7 +25899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="69.75" customHeight="1">
       <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
@@ -24600,7 +25914,7 @@
       </c>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="69.75" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>37</v>
       </c>
@@ -24615,7 +25929,7 @@
       </c>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="69.75" customHeight="1">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
@@ -24629,7 +25943,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="33">
       <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
@@ -24640,7 +25954,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="66">
       <c r="C18" s="8" t="s">
         <v>56</v>
       </c>
@@ -24651,7 +25965,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="138.5" customHeight="1">
       <c r="B19" s="7" t="s">
         <v>23</v>
       </c>
@@ -24668,7 +25982,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="138.5" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
@@ -24683,7 +25997,7 @@
       </c>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="66">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -24700,7 +26014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="121.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="121.75" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
@@ -24720,7 +26034,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="162" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="198">
       <c r="B23" s="7" t="s">
         <v>70</v>
       </c>
@@ -24731,7 +26045,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="81" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="99">
       <c r="B24" s="7" t="s">
         <v>77</v>
       </c>
@@ -24748,7 +26062,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="156.5" customHeight="1">
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
@@ -24762,7 +26076,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="156.5" customHeight="1">
       <c r="B26" s="7" t="s">
         <v>23</v>
       </c>
@@ -24776,7 +26090,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="156.5" customHeight="1">
       <c r="C27" s="8" t="s">
         <v>88</v>
       </c>
@@ -24790,7 +26104,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="156.5" customHeight="1">
       <c r="B28" s="7" t="s">
         <v>77</v>
       </c>
@@ -24804,7 +26118,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="156.5" customHeight="1">
       <c r="B29" s="7" t="s">
         <v>23</v>
       </c>
@@ -24819,7 +26133,7 @@
       </c>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="156.5" customHeight="1">
       <c r="B30" s="7" t="s">
         <v>23</v>
       </c>
@@ -24831,7 +26145,7 @@
       </c>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="156.5" customHeight="1">
       <c r="B31" s="7" t="s">
         <v>23</v>
       </c>
@@ -24842,7 +26156,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="72">
       <c r="C32" s="8" t="s">
         <v>102</v>
       </c>
@@ -24853,7 +26167,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="115.25" customHeight="1">
       <c r="B33" s="7" t="s">
         <v>23</v>
       </c>
@@ -24867,7 +26181,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="115.25" customHeight="1">
       <c r="B34" s="7" t="s">
         <v>23</v>
       </c>
@@ -24878,7 +26192,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="115.25" customHeight="1">
       <c r="B35" s="7" t="s">
         <v>77</v>
       </c>
@@ -24889,7 +26203,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="115.25" customHeight="1">
       <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
@@ -24903,7 +26217,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="72" customHeight="1">
       <c r="B37" s="7" t="s">
         <v>115</v>
       </c>
@@ -24911,7 +26225,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="77">
       <c r="B38" s="7" t="s">
         <v>117</v>
       </c>
@@ -24925,7 +26239,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="95.5" customHeight="1">
       <c r="B39" s="7" t="s">
         <v>117</v>
       </c>
@@ -24939,7 +26253,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="114" customHeight="1">
       <c r="B40" s="7" t="s">
         <v>117</v>
       </c>
@@ -24950,7 +26264,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="114" customHeight="1">
       <c r="B41" s="7" t="s">
         <v>117</v>
       </c>
@@ -24961,7 +26275,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="78">
       <c r="B42" s="7" t="s">
         <v>128</v>
       </c>
@@ -24972,7 +26286,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10">
       <c r="B43" s="7" t="s">
         <v>128</v>
       </c>
@@ -24980,7 +26294,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="65">
       <c r="B44" s="7" t="s">
         <v>128</v>
       </c>
@@ -24991,7 +26305,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="2:10" s="27" customFormat="1" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" s="27" customFormat="1" ht="164.5" customHeight="1">
       <c r="B45" s="23" t="s">
         <v>128</v>
       </c>
@@ -25010,7 +26324,7 @@
       <c r="I45" s="26"/>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="2:10" s="27" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" s="27" customFormat="1" ht="126.75" customHeight="1">
       <c r="B46" s="23" t="s">
         <v>137</v>
       </c>
@@ -25029,7 +26343,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="2:10" s="27" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" s="27" customFormat="1" ht="123.75" customHeight="1">
       <c r="B47" s="23" t="s">
         <v>137</v>
       </c>
@@ -25046,7 +26360,7 @@
       <c r="I47" s="28"/>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="2:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" s="27" customFormat="1" ht="13">
       <c r="B48" s="23"/>
       <c r="C48" s="23" t="s">
         <v>143</v>
@@ -25061,7 +26375,7 @@
       <c r="I48" s="26"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="27" customFormat="1" ht="13">
       <c r="B49" s="23"/>
       <c r="C49" s="23" t="s">
         <v>145</v>
@@ -25076,7 +26390,7 @@
       <c r="I49" s="26"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" s="27" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="27" customFormat="1" ht="148.5" customHeight="1">
       <c r="B50" s="23" t="s">
         <v>137</v>
       </c>
@@ -25095,7 +26409,7 @@
       <c r="I50" s="29"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1">
       <c r="B51" s="23" t="s">
         <v>137</v>
       </c>
@@ -25116,7 +26430,7 @@
       <c r="I51" s="30"/>
       <c r="J51" s="24"/>
     </row>
-    <row r="52" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1">
       <c r="B52" s="23" t="s">
         <v>137</v>
       </c>
@@ -25137,7 +26451,7 @@
       <c r="I52" s="31"/>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:10" s="24" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="24" customFormat="1" ht="200" customHeight="1">
       <c r="C53" s="23" t="s">
         <v>158</v>
       </c>
@@ -25151,7 +26465,7 @@
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
     </row>
-    <row r="54" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="26">
       <c r="C54" s="8" t="s">
         <v>161</v>
       </c>
@@ -25162,7 +26476,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="44">
       <c r="B55" s="7" t="s">
         <v>164</v>
       </c>
@@ -25177,7 +26491,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="39">
       <c r="B56" s="7" t="s">
         <v>164</v>
       </c>
@@ -25186,7 +26500,7 @@
       </c>
       <c r="E56" s="8"/>
     </row>
-    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="52">
       <c r="B58" s="7" t="s">
         <v>77</v>
       </c>
@@ -25200,7 +26514,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="183.5" customHeight="1">
       <c r="B59" s="7" t="s">
         <v>137</v>
       </c>
@@ -25214,7 +26528,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="174.5" customHeight="1">
       <c r="B60" s="7" t="s">
         <v>137</v>
       </c>
@@ -25222,7 +26536,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="148.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="148.75" customHeight="1">
       <c r="C61" s="8" t="s">
         <v>176</v>
       </c>
@@ -25230,7 +26544,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="65">
       <c r="A62" s="34" t="s">
         <v>178</v>
       </c>
@@ -25244,7 +26558,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="26">
       <c r="A63" s="34" t="s">
         <v>178</v>
       </c>
@@ -25258,7 +26572,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="26">
       <c r="A64" s="34" t="s">
         <v>178</v>
       </c>
@@ -25272,7 +26586,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="78">
       <c r="A65" s="34" t="s">
         <v>178</v>
       </c>
@@ -25293,27 +26607,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="67" style="9" customWidth="1"/>
     <col min="5" max="5" width="67" style="7" customWidth="1"/>
-    <col min="6" max="6" width="91.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" style="11" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="11"/>
-    <col min="10" max="16384" width="9.140625" style="7"/>
+    <col min="6" max="6" width="91.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" style="11" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" style="11"/>
+    <col min="10" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" s="2" customFormat="1" ht="13">
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
@@ -25328,7 +26642,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="69.75" customHeight="1">
       <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
@@ -25336,7 +26650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="66">
       <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
@@ -25344,7 +26658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="72" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="88">
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
@@ -25355,7 +26669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="77">
       <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
@@ -25363,7 +26677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="132">
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
@@ -25377,7 +26691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="120.75" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -25391,7 +26705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="132" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
@@ -25405,7 +26719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="132" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
@@ -25417,7 +26731,7 @@
       </c>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="69.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
@@ -25431,7 +26745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="69.75" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
@@ -25445,7 +26759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="69.75" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
@@ -25462,7 +26776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="69.75" customHeight="1">
       <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
@@ -25477,7 +26791,7 @@
       </c>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="69.75" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>37</v>
       </c>
@@ -25492,7 +26806,7 @@
       </c>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="69.75" customHeight="1">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
@@ -25506,7 +26820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="33">
       <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
@@ -25517,7 +26831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="66">
       <c r="C18" s="8" t="s">
         <v>56</v>
       </c>
@@ -25528,7 +26842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="138.5" customHeight="1">
       <c r="B19" s="7" t="s">
         <v>23</v>
       </c>
@@ -25545,7 +26859,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="138.5" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
@@ -25560,7 +26874,7 @@
       </c>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="66">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -25577,7 +26891,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="121.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="121.75" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
@@ -25597,7 +26911,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="162" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="198">
       <c r="B23" s="7" t="s">
         <v>70</v>
       </c>
@@ -25608,7 +26922,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="81" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="99">
       <c r="B24" s="7" t="s">
         <v>77</v>
       </c>
@@ -25625,7 +26939,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="156.5" customHeight="1">
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
@@ -25639,7 +26953,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="156.5" customHeight="1">
       <c r="B26" s="7" t="s">
         <v>23</v>
       </c>
@@ -25653,7 +26967,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="156.5" customHeight="1">
       <c r="C27" s="8" t="s">
         <v>88</v>
       </c>
@@ -25667,7 +26981,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="156.5" customHeight="1">
       <c r="B28" s="7" t="s">
         <v>77</v>
       </c>
@@ -25681,7 +26995,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="156.5" customHeight="1">
       <c r="B29" s="7" t="s">
         <v>23</v>
       </c>
@@ -25696,7 +27010,7 @@
       </c>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="156.5" customHeight="1">
       <c r="B30" s="7" t="s">
         <v>23</v>
       </c>
@@ -25708,7 +27022,7 @@
       </c>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="156.5" customHeight="1">
       <c r="B31" s="7" t="s">
         <v>23</v>
       </c>
@@ -25719,7 +27033,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="72">
       <c r="C32" s="8" t="s">
         <v>102</v>
       </c>
@@ -25730,7 +27044,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="115.25" customHeight="1">
       <c r="B33" s="7" t="s">
         <v>23</v>
       </c>
@@ -25744,7 +27058,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="115.25" customHeight="1">
       <c r="B34" s="7" t="s">
         <v>23</v>
       </c>
@@ -25755,7 +27069,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="115.25" customHeight="1">
       <c r="B35" s="7" t="s">
         <v>77</v>
       </c>
@@ -25766,7 +27080,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="115.25" customHeight="1">
       <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
@@ -25780,7 +27094,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="72" customHeight="1">
       <c r="B37" s="7" t="s">
         <v>115</v>
       </c>
@@ -25788,7 +27102,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="77">
       <c r="B38" s="7" t="s">
         <v>117</v>
       </c>
@@ -25802,7 +27116,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="95.5" customHeight="1">
       <c r="B39" s="7" t="s">
         <v>117</v>
       </c>
@@ -25816,7 +27130,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="114" customHeight="1">
       <c r="B40" s="7" t="s">
         <v>117</v>
       </c>
@@ -25827,7 +27141,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="114" customHeight="1">
       <c r="B41" s="7" t="s">
         <v>117</v>
       </c>
@@ -25838,7 +27152,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="78">
       <c r="B42" s="7" t="s">
         <v>128</v>
       </c>
@@ -25849,7 +27163,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10">
       <c r="B43" s="7" t="s">
         <v>128</v>
       </c>
@@ -25857,7 +27171,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="65">
       <c r="B44" s="7" t="s">
         <v>128</v>
       </c>
@@ -25868,7 +27182,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="2:10" s="27" customFormat="1" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" s="27" customFormat="1" ht="164.5" customHeight="1">
       <c r="B45" s="23" t="s">
         <v>128</v>
       </c>
@@ -25887,7 +27201,7 @@
       <c r="I45" s="26"/>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="2:10" s="27" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" s="27" customFormat="1" ht="126.75" customHeight="1">
       <c r="B46" s="23" t="s">
         <v>137</v>
       </c>
@@ -25906,7 +27220,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="2:10" s="27" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" s="27" customFormat="1" ht="123.75" customHeight="1">
       <c r="B47" s="23" t="s">
         <v>137</v>
       </c>
@@ -25923,7 +27237,7 @@
       <c r="I47" s="28"/>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="2:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" s="27" customFormat="1" ht="13">
       <c r="B48" s="23"/>
       <c r="C48" s="23" t="s">
         <v>143</v>
@@ -25938,7 +27252,7 @@
       <c r="I48" s="26"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="27" customFormat="1" ht="13">
       <c r="B49" s="23"/>
       <c r="C49" s="23" t="s">
         <v>145</v>
@@ -25953,7 +27267,7 @@
       <c r="I49" s="26"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" s="27" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="27" customFormat="1" ht="148.5" customHeight="1">
       <c r="B50" s="23" t="s">
         <v>137</v>
       </c>
@@ -25972,7 +27286,7 @@
       <c r="I50" s="29"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1">
       <c r="B51" s="23" t="s">
         <v>137</v>
       </c>
@@ -25993,7 +27307,7 @@
       <c r="I51" s="30"/>
       <c r="J51" s="24"/>
     </row>
-    <row r="52" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1">
       <c r="B52" s="23" t="s">
         <v>137</v>
       </c>
@@ -26014,7 +27328,7 @@
       <c r="I52" s="31"/>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:10" s="24" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="24" customFormat="1" ht="200" customHeight="1">
       <c r="C53" s="23" t="s">
         <v>158</v>
       </c>
@@ -26028,7 +27342,7 @@
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
     </row>
-    <row r="54" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="26">
       <c r="C54" s="8" t="s">
         <v>161</v>
       </c>
@@ -26039,7 +27353,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="44">
       <c r="B55" s="7" t="s">
         <v>164</v>
       </c>
@@ -26054,7 +27368,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="39">
       <c r="B56" s="7" t="s">
         <v>164</v>
       </c>
@@ -26063,7 +27377,7 @@
       </c>
       <c r="E56" s="8"/>
     </row>
-    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="52">
       <c r="B58" s="7" t="s">
         <v>77</v>
       </c>
@@ -26077,7 +27391,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="183.5" customHeight="1">
       <c r="B59" s="7" t="s">
         <v>137</v>
       </c>
@@ -26091,7 +27405,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="174.5" customHeight="1">
       <c r="B60" s="7" t="s">
         <v>137</v>
       </c>
@@ -26099,7 +27413,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="148.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="148.75" customHeight="1">
       <c r="C61" s="8" t="s">
         <v>176</v>
       </c>
@@ -26107,7 +27421,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="65">
       <c r="A62" s="34" t="s">
         <v>178</v>
       </c>
@@ -26121,7 +27435,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="26">
       <c r="A63" s="34" t="s">
         <v>178</v>
       </c>
@@ -26135,7 +27449,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="26">
       <c r="A64" s="34" t="s">
         <v>178</v>
       </c>
@@ -26149,7 +27463,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="78">
       <c r="A65" s="34" t="s">
         <v>178</v>
       </c>
@@ -26170,27 +27484,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="67" style="9" customWidth="1"/>
     <col min="5" max="5" width="67" style="7" customWidth="1"/>
-    <col min="6" max="6" width="91.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" style="11" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="11"/>
-    <col min="10" max="16384" width="9.140625" style="7"/>
+    <col min="6" max="6" width="91.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" style="11" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" style="11"/>
+    <col min="10" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" s="2" customFormat="1" ht="13">
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
@@ -26205,7 +27519,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="69.75" customHeight="1">
       <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
@@ -26213,7 +27527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="66">
       <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
@@ -26221,7 +27535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="72" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="88">
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
@@ -26232,7 +27546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="77">
       <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
@@ -26240,7 +27554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="132">
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
@@ -26254,7 +27568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="120.75" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -26268,7 +27582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="132" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
@@ -26282,7 +27596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="132" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
@@ -26294,7 +27608,7 @@
       </c>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="69.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
@@ -26308,7 +27622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="69.75" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
@@ -26322,7 +27636,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="69.75" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
@@ -26339,7 +27653,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="69.75" customHeight="1">
       <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
@@ -26354,7 +27668,7 @@
       </c>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="69.75" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>37</v>
       </c>
@@ -26369,7 +27683,7 @@
       </c>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="69.75" customHeight="1">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
@@ -26383,7 +27697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="33">
       <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
@@ -26394,7 +27708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="66">
       <c r="C18" s="8" t="s">
         <v>56</v>
       </c>
@@ -26405,7 +27719,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="138.5" customHeight="1">
       <c r="B19" s="7" t="s">
         <v>23</v>
       </c>
@@ -26422,7 +27736,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="138.5" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
@@ -26437,7 +27751,7 @@
       </c>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="66">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -26454,7 +27768,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="121.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="121.75" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
@@ -26474,7 +27788,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="162" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="198">
       <c r="B23" s="7" t="s">
         <v>70</v>
       </c>
@@ -26485,7 +27799,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="81" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="99">
       <c r="B24" s="7" t="s">
         <v>77</v>
       </c>
@@ -26502,7 +27816,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="156.5" customHeight="1">
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
@@ -26516,7 +27830,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="156.5" customHeight="1">
       <c r="B26" s="7" t="s">
         <v>23</v>
       </c>
@@ -26530,7 +27844,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="156.5" customHeight="1">
       <c r="C27" s="8" t="s">
         <v>88</v>
       </c>
@@ -26544,7 +27858,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="156.5" customHeight="1">
       <c r="B28" s="7" t="s">
         <v>77</v>
       </c>
@@ -26558,7 +27872,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="156.5" customHeight="1">
       <c r="B29" s="7" t="s">
         <v>23</v>
       </c>
@@ -26573,7 +27887,7 @@
       </c>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="156.5" customHeight="1">
       <c r="B30" s="7" t="s">
         <v>23</v>
       </c>
@@ -26585,7 +27899,7 @@
       </c>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="156.5" customHeight="1">
       <c r="B31" s="7" t="s">
         <v>23</v>
       </c>
@@ -26596,7 +27910,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="72">
       <c r="C32" s="8" t="s">
         <v>102</v>
       </c>
@@ -26607,7 +27921,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="115.25" customHeight="1">
       <c r="B33" s="7" t="s">
         <v>23</v>
       </c>
@@ -26621,7 +27935,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="115.25" customHeight="1">
       <c r="B34" s="7" t="s">
         <v>23</v>
       </c>
@@ -26632,7 +27946,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="115.25" customHeight="1">
       <c r="B35" s="7" t="s">
         <v>77</v>
       </c>
@@ -26643,7 +27957,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="115.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="115.25" customHeight="1">
       <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
@@ -26657,7 +27971,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="72" customHeight="1">
       <c r="B37" s="7" t="s">
         <v>115</v>
       </c>
@@ -26665,7 +27979,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="77">
       <c r="B38" s="7" t="s">
         <v>117</v>
       </c>
@@ -26679,7 +27993,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="95.5" customHeight="1">
       <c r="B39" s="7" t="s">
         <v>117</v>
       </c>
@@ -26693,7 +28007,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="114" customHeight="1">
       <c r="B40" s="7" t="s">
         <v>117</v>
       </c>
@@ -26704,7 +28018,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="114" customHeight="1">
       <c r="B41" s="7" t="s">
         <v>117</v>
       </c>
@@ -26715,7 +28029,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="78">
       <c r="B42" s="7" t="s">
         <v>128</v>
       </c>
@@ -26726,7 +28040,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10">
       <c r="B43" s="7" t="s">
         <v>128</v>
       </c>
@@ -26734,7 +28048,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="65">
       <c r="B44" s="7" t="s">
         <v>128</v>
       </c>
@@ -26745,7 +28059,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="2:10" s="27" customFormat="1" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" s="27" customFormat="1" ht="164.5" customHeight="1">
       <c r="B45" s="23" t="s">
         <v>128</v>
       </c>
@@ -26764,7 +28078,7 @@
       <c r="I45" s="26"/>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="2:10" s="27" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" s="27" customFormat="1" ht="126.75" customHeight="1">
       <c r="B46" s="23" t="s">
         <v>137</v>
       </c>
@@ -26783,7 +28097,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="2:10" s="27" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" s="27" customFormat="1" ht="123.75" customHeight="1">
       <c r="B47" s="23" t="s">
         <v>137</v>
       </c>
@@ -26800,7 +28114,7 @@
       <c r="I47" s="28"/>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="2:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" s="27" customFormat="1" ht="13">
       <c r="B48" s="23"/>
       <c r="C48" s="23" t="s">
         <v>143</v>
@@ -26815,7 +28129,7 @@
       <c r="I48" s="26"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="27" customFormat="1" ht="13">
       <c r="B49" s="23"/>
       <c r="C49" s="23" t="s">
         <v>145</v>
@@ -26830,7 +28144,7 @@
       <c r="I49" s="26"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" s="27" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="27" customFormat="1" ht="148.5" customHeight="1">
       <c r="B50" s="23" t="s">
         <v>137</v>
       </c>
@@ -26849,7 +28163,7 @@
       <c r="I50" s="29"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1">
       <c r="B51" s="23" t="s">
         <v>137</v>
       </c>
@@ -26870,7 +28184,7 @@
       <c r="I51" s="30"/>
       <c r="J51" s="24"/>
     </row>
-    <row r="52" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="27" customFormat="1" ht="145.5" customHeight="1">
       <c r="B52" s="23" t="s">
         <v>137</v>
       </c>
@@ -26891,7 +28205,7 @@
       <c r="I52" s="31"/>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:10" s="24" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="24" customFormat="1" ht="200" customHeight="1">
       <c r="C53" s="23" t="s">
         <v>158</v>
       </c>
@@ -26905,7 +28219,7 @@
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
     </row>
-    <row r="54" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="26">
       <c r="C54" s="8" t="s">
         <v>161</v>
       </c>
@@ -26916,7 +28230,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="44">
       <c r="B55" s="7" t="s">
         <v>164</v>
       </c>
@@ -26931,7 +28245,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="39">
       <c r="B56" s="7" t="s">
         <v>164</v>
       </c>
@@ -26940,7 +28254,7 @@
       </c>
       <c r="E56" s="8"/>
     </row>
-    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="52">
       <c r="B58" s="7" t="s">
         <v>77</v>
       </c>
@@ -26954,7 +28268,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="183.5" customHeight="1">
       <c r="B59" s="7" t="s">
         <v>137</v>
       </c>
@@ -26968,7 +28282,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="174.5" customHeight="1">
       <c r="B60" s="7" t="s">
         <v>137</v>
       </c>
@@ -26976,7 +28290,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="148.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="148.75" customHeight="1">
       <c r="C61" s="8" t="s">
         <v>176</v>
       </c>
@@ -26984,7 +28298,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="65">
       <c r="A62" s="34" t="s">
         <v>178</v>
       </c>
@@ -26998,7 +28312,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="26">
       <c r="A63" s="34" t="s">
         <v>178</v>
       </c>
@@ -27012,7 +28326,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="26">
       <c r="A64" s="34" t="s">
         <v>178</v>
       </c>
@@ -27026,7 +28340,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="78">
       <c r="A65" s="34" t="s">
         <v>178</v>
       </c>
@@ -27047,21 +28361,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" s="2" customFormat="1" ht="13">
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
@@ -27071,7 +28385,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:6" s="7" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" s="7" customFormat="1" ht="69.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>188</v>
       </c>
@@ -27084,7 +28398,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="2:6" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" s="7" customFormat="1" ht="12">
       <c r="B4" s="7" t="s">
         <v>189</v>
       </c>
@@ -27095,7 +28409,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="2:6" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" s="7" customFormat="1" ht="36">
       <c r="B5" s="7" t="s">
         <v>190</v>
       </c>
@@ -27106,7 +28420,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="2:6" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" s="7" customFormat="1" ht="36">
       <c r="B6" s="7" t="s">
         <v>191</v>
       </c>
@@ -27123,65 +28437,65 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="59.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="59.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="16">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" ht="16">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" ht="16">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" ht="16">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" ht="16">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="16">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" ht="32">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>

--- a/DataStructure_Algorithm QA.xlsx
+++ b/DataStructure_Algorithm QA.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEF5DB1-8763-524B-91EF-9F8F90E3B441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A606D-B1F7-7444-A7DD-2A412B9DE16A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INDEX!$A$2:$D$35</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="397">
   <si>
     <t>Add two numbers represented as linked lists</t>
   </si>
@@ -24614,8 +24614,11 @@
   </sheetPr>
   <dimension ref="B2:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -24999,8 +25002,10 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
-      <c r="C13" s="38"/>
+    <row r="13" spans="2:16" ht="16">
+      <c r="C13" s="38" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
